--- a/项目文档/后台接口/管理员相关接口.xlsx
+++ b/项目文档/后台接口/管理员相关接口.xlsx
@@ -40,7 +40,7 @@
     <t>管理员|登陆</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/login</t>
+    <t>/admin/adminUser/login</t>
   </si>
   <si>
     <r>
@@ -78,7 +78,7 @@
     <t>管理员|添加用户</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/add</t>
+    <t>/admin/adminUser/add</t>
   </si>
   <si>
     <r>
@@ -134,7 +134,7 @@
     <t>管理员|查询</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/findById</t>
+    <t>/admin/adminUser/findById</t>
   </si>
   <si>
     <t>id</t>
@@ -146,13 +146,13 @@
     <t>管理员|修改</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/update</t>
+    <t>/admin/adminUser/update</t>
   </si>
   <si>
     <t>管理员|分页查询</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/findAll</t>
+    <t>/admin/adminUser/findAll</t>
   </si>
   <si>
     <r>
@@ -187,13 +187,13 @@
     <t>管理员|删除</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/delete</t>
+    <t>/admin/adminUser/delete</t>
   </si>
   <si>
     <t>管理员|禁用</t>
   </si>
   <si>
-    <t>/api/admin/adminUser/forbid</t>
+    <t>/admin/adminUser/forbid</t>
   </si>
 </sst>
 </file>
@@ -201,11 +201,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -226,6 +226,20 @@
       <color rgb="FF000000"/>
       <name val="Avenir Next"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -257,9 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,46 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +319,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,16 +372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,18 +661,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,45 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,153 +714,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="6"/>

--- a/项目文档/后台接口/管理员相关接口.xlsx
+++ b/项目文档/后台接口/管理员相关接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="后台接口文档" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>模块</t>
   </si>
@@ -184,6 +184,20 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>start1 pageSize 10</t>
+    </r>
+  </si>
+  <si>
     <t>管理员|删除</t>
   </si>
   <si>
@@ -201,11 +215,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -228,22 +242,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +285,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -287,9 +293,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,19 +315,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,16 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,17 +368,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -412,55 +426,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,121 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,47 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +705,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -737,6 +736,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +777,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +789,137 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -940,6 +954,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2152,7 +2169,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="6"/>
@@ -2161,8 +2178,8 @@
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6761904761905" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.1714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="258" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2282,15 +2299,17 @@
         <v>18</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>17</v>
@@ -2304,10 +2323,10 @@
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
@@ -2320,7 +2339,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2329,7 +2348,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2338,7 +2357,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2347,7 +2366,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2356,7 +2375,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -2365,7 +2384,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2374,7 +2393,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2383,7 +2402,7 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2392,7 +2411,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2401,7 +2420,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2410,7 +2429,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2419,7 +2438,7 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2428,7 +2447,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2437,7 +2456,7 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2446,7 +2465,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2455,7 +2474,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2464,7 +2483,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2473,7 +2492,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2482,7 +2501,7 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2491,7 +2510,7 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2500,13 +2519,13 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/项目文档/后台接口/管理员相关接口.xlsx
+++ b/项目文档/后台接口/管理员相关接口.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>模块</t>
   </si>
@@ -75,12 +75,38 @@
     <t>POST</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">operator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前登录用户</t>
+    </r>
+  </si>
+  <si>
     <t>管理员|添加用户</t>
   </si>
   <si>
     <t>/admin/adminUser/add</t>
   </si>
   <si>
+    <r>
+      <t>operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -185,6 +211,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认</t>
     </r>
     <r>
@@ -204,6 +236,29 @@
     <t>/admin/adminUser/delete</t>
   </si>
   <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>operator</t>
+    </r>
+  </si>
+  <si>
     <t>管理员|禁用</t>
   </si>
   <si>
@@ -216,9 +271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="24">
@@ -255,13 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -291,6 +339,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -316,29 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,23 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,187 +481,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,26 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +768,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -729,13 +786,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,183 +824,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,25 +997,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -966,7 +1018,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2169,7 +2221,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="6"/>
@@ -2178,354 +2230,363 @@
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="258" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="259" max="16384" width="8.17142857142857" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="22.6" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="22.85" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="42.8" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="15"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
